--- a/static/uploaded_data.xlsx
+++ b/static/uploaded_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,30 +461,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Geo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>His</t>
+          <t>OverallPercentage</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Bio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>OverallPercentage</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rank</t>
         </is>
@@ -509,22 +494,13 @@
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="G2" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>227</v>
-      </c>
-      <c r="J2" t="n">
-        <v>37.83</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -546,22 +522,13 @@
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G3" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>87</v>
-      </c>
-      <c r="I3" t="n">
-        <v>402</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -583,21 +550,12 @@
         <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="G4" t="n">
-        <v>99</v>
+        <v>62.67</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>66.83</v>
-      </c>
-      <c r="K4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -620,22 +578,13 @@
         <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>196</v>
-      </c>
-      <c r="J5" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +606,13 @@
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>41.67</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
-      </c>
-      <c r="I6" t="n">
-        <v>337</v>
-      </c>
-      <c r="J6" t="n">
-        <v>56.17</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -694,22 +634,13 @@
         <v>48</v>
       </c>
       <c r="F7" t="n">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="G7" t="n">
-        <v>96</v>
+        <v>59.67</v>
       </c>
       <c r="H7" t="n">
-        <v>99</v>
-      </c>
-      <c r="I7" t="n">
-        <v>416</v>
-      </c>
-      <c r="J7" t="n">
-        <v>69.33</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -731,22 +662,13 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H8" t="n">
-        <v>35</v>
-      </c>
-      <c r="I8" t="n">
-        <v>373</v>
-      </c>
-      <c r="J8" t="n">
-        <v>62.17</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -768,22 +690,13 @@
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="G9" t="n">
-        <v>88</v>
+        <v>34.67</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I9" t="n">
-        <v>292</v>
-      </c>
-      <c r="J9" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -805,22 +718,13 @@
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>66.33</v>
       </c>
       <c r="H10" t="n">
-        <v>75</v>
-      </c>
-      <c r="I10" t="n">
-        <v>322</v>
-      </c>
-      <c r="J10" t="n">
-        <v>53.67</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/static/uploaded_data.xlsx
+++ b/static/uploaded_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>His</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>OverallPercentage</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rank</t>
         </is>
@@ -494,13 +509,22 @@
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>227</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +546,22 @@
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="I3" t="n">
+        <v>402</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -550,12 +583,21 @@
         <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="G4" t="n">
-        <v>62.67</v>
+        <v>99</v>
       </c>
       <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>401</v>
+      </c>
+      <c r="J4" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="K4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -578,13 +620,22 @@
         <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>196</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -606,13 +657,22 @@
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="G6" t="n">
-        <v>41.67</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>337</v>
+      </c>
+      <c r="J6" t="n">
+        <v>56.17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -634,13 +694,22 @@
         <v>48</v>
       </c>
       <c r="F7" t="n">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="G7" t="n">
-        <v>59.67</v>
+        <v>96</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>99</v>
+      </c>
+      <c r="I7" t="n">
+        <v>416</v>
+      </c>
+      <c r="J7" t="n">
+        <v>69.33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -662,13 +731,22 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="G8" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="I8" t="n">
+        <v>373</v>
+      </c>
+      <c r="J8" t="n">
+        <v>62.17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -690,13 +768,22 @@
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="G9" t="n">
-        <v>34.67</v>
+        <v>88</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="I9" t="n">
+        <v>292</v>
+      </c>
+      <c r="J9" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -718,13 +805,22 @@
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>66.33</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>322</v>
+      </c>
+      <c r="J10" t="n">
+        <v>53.67</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
